--- a/cta策略/result/螺纹/KDJ_60min/wfo_最优两组参数的绩效.xlsx
+++ b/cta策略/result/螺纹/KDJ_60min/wfo_最优两组参数的绩效.xlsx
@@ -420,16 +420,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.05378765948442821</v>
+        <v>-0.002227887144725216</v>
       </c>
       <c r="D2">
-        <v>-1.663400525747498</v>
+        <v>-0.3568159227350437</v>
       </c>
       <c r="E2">
-        <v>-0.1644139880002771</v>
+        <v>-0.006566742103171133</v>
       </c>
       <c r="F2">
-        <v>0.0625</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,16 +440,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-0.01433231077570774</v>
+        <v>-0.002059010445650822</v>
       </c>
       <c r="D3">
-        <v>-1.9732436022049</v>
+        <v>-0.5256285354027991</v>
       </c>
       <c r="E3">
-        <v>-0.1750294346381365</v>
+        <v>-0.00842667619472747</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
